--- a/registration_of_UA_refugees_in_CH.xlsx
+++ b/registration_of_UA_refugees_in_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6EDD4D-26EE-B049-A139-7BA8EA62BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8D8B5-FF82-FC40-B290-F0154FD29F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1509127749599961090</t>
   </si>
 </sst>
 </file>
@@ -188,10 +191,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1068,6 +1072,31 @@
         <v>18</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44650</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19289</v>
+      </c>
+      <c r="D23" s="1">
+        <f>C23-C22</f>
+        <v>948</v>
+      </c>
+      <c r="E23" s="1">
+        <v>11912</v>
+      </c>
+      <c r="F23" s="1">
+        <f>E23-E22</f>
+        <v>731</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/registration_of_UA_refugees_in_CH.xlsx
+++ b/registration_of_UA_refugees_in_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8D8B5-FF82-FC40-B290-F0154FD29F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2790D9-F1CF-A04B-BD0C-5D468336003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -92,21 +92,9 @@
     <t>https://twitter.com/SEMIGRATION/status/1508751577254932486</t>
   </si>
   <si>
-    <t>Registered refugees</t>
-  </si>
-  <si>
     <t>* data not available</t>
   </si>
   <si>
-    <t>Daily S status granted</t>
-  </si>
-  <si>
-    <t>Accommodated in federal asylum centers</t>
-  </si>
-  <si>
-    <t>Privately accomodated</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -137,16 +125,40 @@
     <t>https://twitter.com/SEMIGRATION/status/1505808385194737664 and https://twitter.com/SEMIGRATION/status/1505870634018082820</t>
   </si>
   <si>
-    <t>Daily reg. Refugees</t>
-  </si>
-  <si>
-    <t>S status granted</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1509127749599961090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refugees </t>
+  </si>
+  <si>
+    <t>New registrations</t>
+  </si>
+  <si>
+    <t>S status</t>
+  </si>
+  <si>
+    <t>Total registrations</t>
+  </si>
+  <si>
+    <t>Total granted</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>In federal asylum centers</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Newly granted</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1509455564945989637</t>
   </si>
 </sst>
 </file>
@@ -156,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,13 +182,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,11 +222,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,594 +549,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="109.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44629</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1341</v>
-      </c>
-      <c r="G2" s="1">
-        <v>999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>315</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>44630</v>
+        <v>44629</v>
       </c>
       <c r="C3" s="1">
-        <v>1624</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3-C2</f>
-        <v>283</v>
+        <v>1341</v>
       </c>
       <c r="G3" s="1">
-        <v>1145</v>
+        <v>999</v>
       </c>
       <c r="H3" s="1">
-        <v>479</v>
+        <v>315</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>44631</v>
+        <v>44630</v>
       </c>
       <c r="C4" s="1">
-        <v>2111</v>
+        <v>1624</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D12" si="0">C4-C3</f>
-        <v>487</v>
+        <f>C4-C3</f>
+        <v>283</v>
       </c>
       <c r="G4" s="1">
-        <v>1415</v>
+        <v>1145</v>
       </c>
       <c r="H4" s="1">
-        <v>696</v>
+        <v>479</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
+        <v>44631</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2111</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D13" si="0">C5-C4</f>
+        <v>487</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1415</v>
+      </c>
+      <c r="H5" s="1">
+        <v>696</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4">
         <v>44632</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="3">
         <v>2475</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="G5" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>1643</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="3">
         <v>832</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4">
         <v>44633</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="3">
         <v>3117</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>642</v>
       </c>
-      <c r="G6" s="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>2011</v>
       </c>
-      <c r="H6" s="1">
-        <f>C6-G6</f>
+      <c r="H7" s="3">
+        <f>C7-G7</f>
         <v>1106</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
         <v>44634</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>3843</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>2281</v>
       </c>
-      <c r="H7" s="1">
-        <f>C7-G7</f>
+      <c r="H8" s="1">
+        <f>C8-G8</f>
         <v>1562</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
         <v>44635</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>5211</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>1368</v>
       </c>
-      <c r="G8" s="1">
-        <f>C8-H8</f>
+      <c r="G9" s="1">
+        <f>C9-H9</f>
         <v>3090</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>2121</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
         <v>44636</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>6482</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>1271</v>
       </c>
-      <c r="G9" s="1">
-        <f>C9-H9</f>
+      <c r="G10" s="1">
+        <f>C10-H10</f>
         <v>3642</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H10" s="1">
         <v>2840</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2">
         <v>44637</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>7903</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>1421</v>
       </c>
-      <c r="G10" s="1">
-        <f>C10-H10</f>
+      <c r="G11" s="1">
+        <f>C11-H11</f>
         <v>4239</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>3664</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
         <v>44638</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>9059</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="G11" s="1">
-        <f>C11-H11</f>
+      <c r="G12" s="1">
+        <f>C12-H12</f>
         <v>4973</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>4086</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
         <v>44639</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="3">
         <v>9826</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>767</v>
       </c>
-      <c r="G12" s="1">
-        <f>C12-H12</f>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <f>C13-H13</f>
         <v>5409</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="3">
         <v>4417</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
         <v>44640</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="3">
         <v>9826</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44641</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11021</v>
-      </c>
-      <c r="D14" s="1">
-        <f>C14-C12</f>
-        <v>1195</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2895</v>
-      </c>
-      <c r="G14" s="1">
-        <f>C14-H14</f>
-        <v>6915</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4106</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>44642</v>
+        <v>44641</v>
       </c>
       <c r="C15" s="1">
-        <v>11876</v>
+        <v>11021</v>
       </c>
       <c r="D15" s="1">
-        <f>C15-C14</f>
-        <v>855</v>
+        <f>C15-C13</f>
+        <v>1195</v>
       </c>
       <c r="E15" s="1">
-        <v>4518</v>
-      </c>
-      <c r="F15" s="1">
-        <f>E15-E14</f>
-        <v>1623</v>
+        <v>2895</v>
+      </c>
+      <c r="G15" s="1">
+        <f>C15-H15</f>
+        <v>6915</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4106</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>44643</v>
+        <v>44642</v>
       </c>
       <c r="C16" s="1">
-        <v>12750</v>
+        <v>11876</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:D22" si="1">C16-C15</f>
-        <v>874</v>
+        <f>C16-C15</f>
+        <v>855</v>
       </c>
       <c r="E16" s="1">
-        <v>6195</v>
+        <v>4518</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ref="F16:F22" si="2">E16-E15</f>
-        <v>1677</v>
+        <f>E16-E15</f>
+        <v>1623</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12750</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:D23" si="1">C17-C16</f>
+        <v>874</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6195</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:F23" si="2">E17-E16</f>
+        <v>1677</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
         <v>44644</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>13601</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>851</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>7622</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>1427</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
         <v>44645</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>14506</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>905</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>8891</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>1269</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
         <v>44646</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="3">
         <v>15388</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="3">
         <f t="shared" si="1"/>
         <v>882</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="3">
         <v>9635</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="3">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
         <v>44647</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="3">
         <v>16520</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="3">
         <f t="shared" si="1"/>
         <v>1132</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="3">
         <v>9982</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="3">
         <f t="shared" si="2"/>
         <v>347</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
         <v>44648</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>17204</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>684</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>10437</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>44649</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>18341</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>1137</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>11181</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
         <v>44650</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>19289</v>
       </c>
-      <c r="D23" s="1">
-        <f>C23-C22</f>
+      <c r="D24" s="1">
+        <f>C24-C23</f>
         <v>948</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>11912</v>
       </c>
-      <c r="F23" s="1">
-        <f>E23-E22</f>
+      <c r="F24" s="1">
+        <f>E24-E23</f>
         <v>731</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>37</v>
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20569</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25-C24</f>
+        <v>1280</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13447</v>
+      </c>
+      <c r="F25" s="1">
+        <f>E25-E24</f>
+        <v>1535</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/registration_of_UA_refugees_in_CH.xlsx
+++ b/registration_of_UA_refugees_in_CH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2790D9-F1CF-A04B-BD0C-5D468336003C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B01EE-8B18-2C4F-B2E8-D82E764F22D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1509455564945989637</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1509843558941003779</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -565,7 +568,7 @@
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="109.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1188,6 +1191,31 @@
       </c>
       <c r="I25" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C26" s="1">
+        <v>21700</v>
+      </c>
+      <c r="D26" s="1">
+        <f>C26-C25</f>
+        <v>1131</v>
+      </c>
+      <c r="E26" s="1">
+        <v>15192</v>
+      </c>
+      <c r="F26" s="1">
+        <f>E26-E25</f>
+        <v>1745</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
